--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_136.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_136.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33012-d78120-Reviews-Comfort_Suites_San_Clemente-San_Clemente_California.html</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>242</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Comfort-Suites-San-Clemente-Beach.h23368.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_136.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_136.xlsx
@@ -3935,7 +3935,7 @@
         <v>28535</v>
       </c>
       <c r="B3" t="n">
-        <v>131496</v>
+        <v>131500</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -4284,7 +4284,7 @@
         <v>28535</v>
       </c>
       <c r="B8" t="n">
-        <v>131497</v>
+        <v>162264</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -4349,7 +4349,7 @@
         <v>28535</v>
       </c>
       <c r="B9" t="n">
-        <v>131498</v>
+        <v>162265</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
@@ -4410,7 +4410,7 @@
         <v>28535</v>
       </c>
       <c r="B10" t="n">
-        <v>131499</v>
+        <v>162266</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -4471,7 +4471,7 @@
         <v>28535</v>
       </c>
       <c r="B11" t="n">
-        <v>131495</v>
+        <v>131500</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -4536,7 +4536,7 @@
         <v>28535</v>
       </c>
       <c r="B12" t="n">
-        <v>131500</v>
+        <v>162267</v>
       </c>
       <c r="C12" t="s">
         <v>131</v>
@@ -4601,7 +4601,7 @@
         <v>28535</v>
       </c>
       <c r="B13" t="n">
-        <v>131501</v>
+        <v>162268</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
@@ -4668,7 +4668,7 @@
         <v>28535</v>
       </c>
       <c r="B14" t="n">
-        <v>131502</v>
+        <v>162269</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -4725,7 +4725,7 @@
         <v>28535</v>
       </c>
       <c r="B15" t="n">
-        <v>131503</v>
+        <v>162270</v>
       </c>
       <c r="C15" t="s">
         <v>152</v>
@@ -4786,7 +4786,7 @@
         <v>28535</v>
       </c>
       <c r="B16" t="n">
-        <v>131504</v>
+        <v>162271</v>
       </c>
       <c r="C16" t="s">
         <v>158</v>
@@ -4847,7 +4847,7 @@
         <v>28535</v>
       </c>
       <c r="B17" t="n">
-        <v>131505</v>
+        <v>162272</v>
       </c>
       <c r="C17" t="s">
         <v>164</v>
@@ -4975,7 +4975,7 @@
         <v>28535</v>
       </c>
       <c r="B19" t="n">
-        <v>131506</v>
+        <v>162273</v>
       </c>
       <c r="C19" t="s">
         <v>178</v>
@@ -5093,7 +5093,7 @@
         <v>28535</v>
       </c>
       <c r="B21" t="n">
-        <v>131507</v>
+        <v>162274</v>
       </c>
       <c r="C21" t="s">
         <v>191</v>
@@ -5158,7 +5158,7 @@
         <v>28535</v>
       </c>
       <c r="B22" t="n">
-        <v>131508</v>
+        <v>162275</v>
       </c>
       <c r="C22" t="s">
         <v>199</v>
@@ -5284,7 +5284,7 @@
         <v>28535</v>
       </c>
       <c r="B24" t="n">
-        <v>131509</v>
+        <v>162276</v>
       </c>
       <c r="C24" t="s">
         <v>214</v>
@@ -5345,7 +5345,7 @@
         <v>28535</v>
       </c>
       <c r="B25" t="n">
-        <v>131510</v>
+        <v>162277</v>
       </c>
       <c r="C25" t="s">
         <v>220</v>
@@ -5532,7 +5532,7 @@
         <v>28535</v>
       </c>
       <c r="B28" t="n">
-        <v>131511</v>
+        <v>162278</v>
       </c>
       <c r="C28" t="s">
         <v>240</v>
@@ -5599,7 +5599,7 @@
         <v>28535</v>
       </c>
       <c r="B29" t="n">
-        <v>131512</v>
+        <v>162279</v>
       </c>
       <c r="C29" t="s">
         <v>247</v>
@@ -5668,7 +5668,7 @@
         <v>28535</v>
       </c>
       <c r="B30" t="n">
-        <v>131513</v>
+        <v>162280</v>
       </c>
       <c r="C30" t="s">
         <v>257</v>
@@ -5739,7 +5739,7 @@
         <v>28535</v>
       </c>
       <c r="B31" t="n">
-        <v>131514</v>
+        <v>162281</v>
       </c>
       <c r="C31" t="s">
         <v>266</v>
@@ -5808,7 +5808,7 @@
         <v>28535</v>
       </c>
       <c r="B32" t="n">
-        <v>131515</v>
+        <v>162282</v>
       </c>
       <c r="C32" t="s">
         <v>275</v>
@@ -5879,7 +5879,7 @@
         <v>28535</v>
       </c>
       <c r="B33" t="n">
-        <v>131516</v>
+        <v>162283</v>
       </c>
       <c r="C33" t="s">
         <v>285</v>
@@ -6015,7 +6015,7 @@
         <v>28535</v>
       </c>
       <c r="B35" t="n">
-        <v>131517</v>
+        <v>162284</v>
       </c>
       <c r="C35" t="s">
         <v>303</v>
@@ -6086,7 +6086,7 @@
         <v>28535</v>
       </c>
       <c r="B36" t="n">
-        <v>131518</v>
+        <v>162285</v>
       </c>
       <c r="C36" t="s">
         <v>312</v>
@@ -6161,7 +6161,7 @@
         <v>28535</v>
       </c>
       <c r="B37" t="n">
-        <v>131519</v>
+        <v>162286</v>
       </c>
       <c r="C37" t="s">
         <v>322</v>
@@ -6236,7 +6236,7 @@
         <v>28535</v>
       </c>
       <c r="B38" t="n">
-        <v>131520</v>
+        <v>162287</v>
       </c>
       <c r="C38" t="s">
         <v>329</v>
@@ -6311,7 +6311,7 @@
         <v>28535</v>
       </c>
       <c r="B39" t="n">
-        <v>131521</v>
+        <v>162288</v>
       </c>
       <c r="C39" t="s">
         <v>339</v>
@@ -6461,7 +6461,7 @@
         <v>28535</v>
       </c>
       <c r="B41" t="n">
-        <v>131522</v>
+        <v>162289</v>
       </c>
       <c r="C41" t="s">
         <v>358</v>
@@ -6536,7 +6536,7 @@
         <v>28535</v>
       </c>
       <c r="B42" t="n">
-        <v>131523</v>
+        <v>162290</v>
       </c>
       <c r="C42" t="s">
         <v>368</v>
@@ -6686,7 +6686,7 @@
         <v>28535</v>
       </c>
       <c r="B44" t="n">
-        <v>131524</v>
+        <v>162291</v>
       </c>
       <c r="C44" t="s">
         <v>384</v>
@@ -6757,7 +6757,7 @@
         <v>28535</v>
       </c>
       <c r="B45" t="n">
-        <v>131525</v>
+        <v>162292</v>
       </c>
       <c r="C45" t="s">
         <v>393</v>
@@ -6828,7 +6828,7 @@
         <v>28535</v>
       </c>
       <c r="B46" t="n">
-        <v>131526</v>
+        <v>162293</v>
       </c>
       <c r="C46" t="s">
         <v>402</v>
@@ -6903,7 +6903,7 @@
         <v>28535</v>
       </c>
       <c r="B47" t="n">
-        <v>131527</v>
+        <v>162294</v>
       </c>
       <c r="C47" t="s">
         <v>409</v>
@@ -6978,7 +6978,7 @@
         <v>28535</v>
       </c>
       <c r="B48" t="n">
-        <v>131528</v>
+        <v>162295</v>
       </c>
       <c r="C48" t="s">
         <v>419</v>
@@ -7049,7 +7049,7 @@
         <v>28535</v>
       </c>
       <c r="B49" t="n">
-        <v>131529</v>
+        <v>162296</v>
       </c>
       <c r="C49" t="s">
         <v>425</v>
@@ -7110,7 +7110,7 @@
         <v>28535</v>
       </c>
       <c r="B50" t="n">
-        <v>131530</v>
+        <v>162297</v>
       </c>
       <c r="C50" t="s">
         <v>431</v>
@@ -7181,7 +7181,7 @@
         <v>28535</v>
       </c>
       <c r="B51" t="n">
-        <v>131531</v>
+        <v>162298</v>
       </c>
       <c r="C51" t="s">
         <v>440</v>
@@ -7256,7 +7256,7 @@
         <v>28535</v>
       </c>
       <c r="B52" t="n">
-        <v>131532</v>
+        <v>162299</v>
       </c>
       <c r="C52" t="s">
         <v>450</v>
@@ -7331,7 +7331,7 @@
         <v>28535</v>
       </c>
       <c r="B53" t="n">
-        <v>131533</v>
+        <v>162300</v>
       </c>
       <c r="C53" t="s">
         <v>459</v>
@@ -7406,7 +7406,7 @@
         <v>28535</v>
       </c>
       <c r="B54" t="n">
-        <v>131534</v>
+        <v>162301</v>
       </c>
       <c r="C54" t="s">
         <v>468</v>
@@ -7481,7 +7481,7 @@
         <v>28535</v>
       </c>
       <c r="B55" t="n">
-        <v>131535</v>
+        <v>162302</v>
       </c>
       <c r="C55" t="s">
         <v>475</v>
@@ -7556,7 +7556,7 @@
         <v>28535</v>
       </c>
       <c r="B56" t="n">
-        <v>131536</v>
+        <v>162303</v>
       </c>
       <c r="C56" t="s">
         <v>482</v>
@@ -7631,7 +7631,7 @@
         <v>28535</v>
       </c>
       <c r="B57" t="n">
-        <v>131537</v>
+        <v>162304</v>
       </c>
       <c r="C57" t="s">
         <v>492</v>
@@ -7706,7 +7706,7 @@
         <v>28535</v>
       </c>
       <c r="B58" t="n">
-        <v>131538</v>
+        <v>162305</v>
       </c>
       <c r="C58" t="s">
         <v>502</v>
@@ -7856,7 +7856,7 @@
         <v>28535</v>
       </c>
       <c r="B60" t="n">
-        <v>131539</v>
+        <v>162306</v>
       </c>
       <c r="C60" t="s">
         <v>521</v>
@@ -7931,7 +7931,7 @@
         <v>28535</v>
       </c>
       <c r="B61" t="n">
-        <v>131540</v>
+        <v>162307</v>
       </c>
       <c r="C61" t="s">
         <v>529</v>
@@ -8081,7 +8081,7 @@
         <v>28535</v>
       </c>
       <c r="B63" t="n">
-        <v>131541</v>
+        <v>162308</v>
       </c>
       <c r="C63" t="s">
         <v>547</v>
@@ -8156,7 +8156,7 @@
         <v>28535</v>
       </c>
       <c r="B64" t="n">
-        <v>131542</v>
+        <v>162309</v>
       </c>
       <c r="C64" t="s">
         <v>553</v>
@@ -8231,7 +8231,7 @@
         <v>28535</v>
       </c>
       <c r="B65" t="n">
-        <v>131543</v>
+        <v>162310</v>
       </c>
       <c r="C65" t="s">
         <v>563</v>
@@ -8306,7 +8306,7 @@
         <v>28535</v>
       </c>
       <c r="B66" t="n">
-        <v>131544</v>
+        <v>162311</v>
       </c>
       <c r="C66" t="s">
         <v>572</v>
@@ -8381,7 +8381,7 @@
         <v>28535</v>
       </c>
       <c r="B67" t="n">
-        <v>131545</v>
+        <v>162312</v>
       </c>
       <c r="C67" t="s">
         <v>579</v>
@@ -8681,7 +8681,7 @@
         <v>28535</v>
       </c>
       <c r="B71" t="n">
-        <v>131546</v>
+        <v>162313</v>
       </c>
       <c r="C71" t="s">
         <v>610</v>
@@ -8756,7 +8756,7 @@
         <v>28535</v>
       </c>
       <c r="B72" t="n">
-        <v>131547</v>
+        <v>162314</v>
       </c>
       <c r="C72" t="s">
         <v>617</v>
@@ -8906,7 +8906,7 @@
         <v>28535</v>
       </c>
       <c r="B74" t="n">
-        <v>131548</v>
+        <v>162315</v>
       </c>
       <c r="C74" t="s">
         <v>631</v>
@@ -8971,7 +8971,7 @@
         <v>28535</v>
       </c>
       <c r="B75" t="n">
-        <v>131549</v>
+        <v>162316</v>
       </c>
       <c r="C75" t="s">
         <v>638</v>
@@ -9046,7 +9046,7 @@
         <v>28535</v>
       </c>
       <c r="B76" t="n">
-        <v>131550</v>
+        <v>162317</v>
       </c>
       <c r="C76" t="s">
         <v>645</v>
@@ -9121,7 +9121,7 @@
         <v>28535</v>
       </c>
       <c r="B77" t="n">
-        <v>131551</v>
+        <v>162318</v>
       </c>
       <c r="C77" t="s">
         <v>652</v>
@@ -9196,7 +9196,7 @@
         <v>28535</v>
       </c>
       <c r="B78" t="n">
-        <v>131552</v>
+        <v>162319</v>
       </c>
       <c r="C78" t="s">
         <v>660</v>
@@ -9271,7 +9271,7 @@
         <v>28535</v>
       </c>
       <c r="B79" t="n">
-        <v>131553</v>
+        <v>162320</v>
       </c>
       <c r="C79" t="s">
         <v>667</v>
@@ -9346,7 +9346,7 @@
         <v>28535</v>
       </c>
       <c r="B80" t="n">
-        <v>131554</v>
+        <v>162321</v>
       </c>
       <c r="C80" t="s">
         <v>673</v>
@@ -9417,7 +9417,7 @@
         <v>28535</v>
       </c>
       <c r="B81" t="n">
-        <v>131555</v>
+        <v>162322</v>
       </c>
       <c r="C81" t="s">
         <v>679</v>
@@ -9492,7 +9492,7 @@
         <v>28535</v>
       </c>
       <c r="B82" t="n">
-        <v>131556</v>
+        <v>131519</v>
       </c>
       <c r="C82" t="s">
         <v>686</v>
@@ -9567,7 +9567,7 @@
         <v>28535</v>
       </c>
       <c r="B83" t="n">
-        <v>131557</v>
+        <v>162323</v>
       </c>
       <c r="C83" t="s">
         <v>693</v>
@@ -9638,7 +9638,7 @@
         <v>28535</v>
       </c>
       <c r="B84" t="n">
-        <v>131558</v>
+        <v>162324</v>
       </c>
       <c r="C84" t="s">
         <v>700</v>
@@ -9788,7 +9788,7 @@
         <v>28535</v>
       </c>
       <c r="B86" t="n">
-        <v>131559</v>
+        <v>162325</v>
       </c>
       <c r="C86" t="s">
         <v>715</v>
@@ -9863,7 +9863,7 @@
         <v>28535</v>
       </c>
       <c r="B87" t="n">
-        <v>131560</v>
+        <v>162326</v>
       </c>
       <c r="C87" t="s">
         <v>722</v>
@@ -9934,7 +9934,7 @@
         <v>28535</v>
       </c>
       <c r="B88" t="n">
-        <v>131561</v>
+        <v>162327</v>
       </c>
       <c r="C88" t="s">
         <v>729</v>
@@ -10005,7 +10005,7 @@
         <v>28535</v>
       </c>
       <c r="B89" t="n">
-        <v>131562</v>
+        <v>162328</v>
       </c>
       <c r="C89" t="s">
         <v>735</v>
@@ -10155,7 +10155,7 @@
         <v>28535</v>
       </c>
       <c r="B91" t="n">
-        <v>131563</v>
+        <v>162329</v>
       </c>
       <c r="C91" t="s">
         <v>749</v>
@@ -10230,7 +10230,7 @@
         <v>28535</v>
       </c>
       <c r="B92" t="n">
-        <v>131564</v>
+        <v>162330</v>
       </c>
       <c r="C92" t="s">
         <v>758</v>
@@ -10301,7 +10301,7 @@
         <v>28535</v>
       </c>
       <c r="B93" t="n">
-        <v>131565</v>
+        <v>162331</v>
       </c>
       <c r="C93" t="s">
         <v>765</v>
@@ -10376,7 +10376,7 @@
         <v>28535</v>
       </c>
       <c r="B94" t="n">
-        <v>131566</v>
+        <v>162332</v>
       </c>
       <c r="C94" t="s">
         <v>773</v>
@@ -10522,7 +10522,7 @@
         <v>28535</v>
       </c>
       <c r="B96" t="n">
-        <v>131567</v>
+        <v>162333</v>
       </c>
       <c r="C96" t="s">
         <v>788</v>
@@ -10664,7 +10664,7 @@
         <v>28535</v>
       </c>
       <c r="B98" t="n">
-        <v>131568</v>
+        <v>162334</v>
       </c>
       <c r="C98" t="s">
         <v>802</v>
@@ -10739,7 +10739,7 @@
         <v>28535</v>
       </c>
       <c r="B99" t="n">
-        <v>131569</v>
+        <v>162335</v>
       </c>
       <c r="C99" t="s">
         <v>810</v>
@@ -10806,7 +10806,7 @@
         <v>28535</v>
       </c>
       <c r="B100" t="n">
-        <v>131570</v>
+        <v>162336</v>
       </c>
       <c r="C100" t="s">
         <v>816</v>
@@ -10873,7 +10873,7 @@
         <v>28535</v>
       </c>
       <c r="B101" t="n">
-        <v>131571</v>
+        <v>162337</v>
       </c>
       <c r="C101" t="s">
         <v>823</v>
@@ -10940,7 +10940,7 @@
         <v>28535</v>
       </c>
       <c r="B102" t="n">
-        <v>131572</v>
+        <v>162338</v>
       </c>
       <c r="C102" t="s">
         <v>830</v>
@@ -11007,7 +11007,7 @@
         <v>28535</v>
       </c>
       <c r="B103" t="n">
-        <v>131573</v>
+        <v>162339</v>
       </c>
       <c r="C103" t="s">
         <v>836</v>
@@ -11074,7 +11074,7 @@
         <v>28535</v>
       </c>
       <c r="B104" t="n">
-        <v>131574</v>
+        <v>162340</v>
       </c>
       <c r="C104" t="s">
         <v>842</v>
@@ -11141,7 +11141,7 @@
         <v>28535</v>
       </c>
       <c r="B105" t="n">
-        <v>131575</v>
+        <v>162341</v>
       </c>
       <c r="C105" t="s">
         <v>849</v>
@@ -11212,7 +11212,7 @@
         <v>28535</v>
       </c>
       <c r="B106" t="n">
-        <v>131576</v>
+        <v>162342</v>
       </c>
       <c r="C106" t="s">
         <v>855</v>
@@ -11287,7 +11287,7 @@
         <v>28535</v>
       </c>
       <c r="B107" t="n">
-        <v>131577</v>
+        <v>162343</v>
       </c>
       <c r="C107" t="s">
         <v>865</v>
@@ -11362,7 +11362,7 @@
         <v>28535</v>
       </c>
       <c r="B108" t="n">
-        <v>131578</v>
+        <v>162344</v>
       </c>
       <c r="C108" t="s">
         <v>872</v>
@@ -11437,7 +11437,7 @@
         <v>28535</v>
       </c>
       <c r="B109" t="n">
-        <v>131555</v>
+        <v>131519</v>
       </c>
       <c r="C109" t="s">
         <v>686</v>
@@ -11512,7 +11512,7 @@
         <v>28535</v>
       </c>
       <c r="B110" t="n">
-        <v>131579</v>
+        <v>162345</v>
       </c>
       <c r="C110" t="s">
         <v>887</v>
@@ -11587,7 +11587,7 @@
         <v>28535</v>
       </c>
       <c r="B111" t="n">
-        <v>131580</v>
+        <v>162346</v>
       </c>
       <c r="C111" t="s">
         <v>894</v>
@@ -11737,7 +11737,7 @@
         <v>28535</v>
       </c>
       <c r="B113" t="n">
-        <v>131581</v>
+        <v>162347</v>
       </c>
       <c r="C113" t="s">
         <v>909</v>
@@ -11812,7 +11812,7 @@
         <v>28535</v>
       </c>
       <c r="B114" t="n">
-        <v>131582</v>
+        <v>162348</v>
       </c>
       <c r="C114" t="s">
         <v>917</v>
@@ -11883,7 +11883,7 @@
         <v>28535</v>
       </c>
       <c r="B115" t="n">
-        <v>131583</v>
+        <v>162349</v>
       </c>
       <c r="C115" t="s">
         <v>924</v>
@@ -11954,7 +11954,7 @@
         <v>28535</v>
       </c>
       <c r="B116" t="n">
-        <v>131584</v>
+        <v>162350</v>
       </c>
       <c r="C116" t="s">
         <v>931</v>
@@ -12029,7 +12029,7 @@
         <v>28535</v>
       </c>
       <c r="B117" t="n">
-        <v>131585</v>
+        <v>162351</v>
       </c>
       <c r="C117" t="s">
         <v>939</v>
@@ -12104,7 +12104,7 @@
         <v>28535</v>
       </c>
       <c r="B118" t="n">
-        <v>131586</v>
+        <v>162352</v>
       </c>
       <c r="C118" t="s">
         <v>947</v>
@@ -12175,7 +12175,7 @@
         <v>28535</v>
       </c>
       <c r="B119" t="n">
-        <v>131587</v>
+        <v>162353</v>
       </c>
       <c r="C119" t="s">
         <v>953</v>
@@ -12244,7 +12244,7 @@
         <v>28535</v>
       </c>
       <c r="B120" t="n">
-        <v>131588</v>
+        <v>162354</v>
       </c>
       <c r="C120" t="s">
         <v>960</v>
@@ -12305,7 +12305,7 @@
         <v>28535</v>
       </c>
       <c r="B121" t="n">
-        <v>131589</v>
+        <v>162355</v>
       </c>
       <c r="C121" t="s">
         <v>967</v>
@@ -12376,7 +12376,7 @@
         <v>28535</v>
       </c>
       <c r="B122" t="n">
-        <v>131590</v>
+        <v>162356</v>
       </c>
       <c r="C122" t="s">
         <v>974</v>
@@ -12447,7 +12447,7 @@
         <v>28535</v>
       </c>
       <c r="B123" t="n">
-        <v>131591</v>
+        <v>162357</v>
       </c>
       <c r="C123" t="s">
         <v>980</v>
@@ -12518,7 +12518,7 @@
         <v>28535</v>
       </c>
       <c r="B124" t="n">
-        <v>131592</v>
+        <v>162358</v>
       </c>
       <c r="C124" t="s">
         <v>987</v>
@@ -12589,7 +12589,7 @@
         <v>28535</v>
       </c>
       <c r="B125" t="n">
-        <v>131593</v>
+        <v>162359</v>
       </c>
       <c r="C125" t="s">
         <v>993</v>
@@ -12660,7 +12660,7 @@
         <v>28535</v>
       </c>
       <c r="B126" t="n">
-        <v>131594</v>
+        <v>162360</v>
       </c>
       <c r="C126" t="s">
         <v>999</v>
@@ -12731,7 +12731,7 @@
         <v>28535</v>
       </c>
       <c r="B127" t="n">
-        <v>131595</v>
+        <v>162361</v>
       </c>
       <c r="C127" t="s">
         <v>1005</v>
@@ -12806,7 +12806,7 @@
         <v>28535</v>
       </c>
       <c r="B128" t="n">
-        <v>131596</v>
+        <v>162362</v>
       </c>
       <c r="C128" t="s">
         <v>1015</v>
@@ -12881,7 +12881,7 @@
         <v>28535</v>
       </c>
       <c r="B129" t="n">
-        <v>131597</v>
+        <v>162363</v>
       </c>
       <c r="C129" t="s">
         <v>1023</v>
@@ -12952,7 +12952,7 @@
         <v>28535</v>
       </c>
       <c r="B130" t="n">
-        <v>131598</v>
+        <v>162364</v>
       </c>
       <c r="C130" t="s">
         <v>1029</v>
@@ -13027,7 +13027,7 @@
         <v>28535</v>
       </c>
       <c r="B131" t="n">
-        <v>131599</v>
+        <v>162365</v>
       </c>
       <c r="C131" t="s">
         <v>1036</v>
@@ -13102,7 +13102,7 @@
         <v>28535</v>
       </c>
       <c r="B132" t="n">
-        <v>131600</v>
+        <v>162366</v>
       </c>
       <c r="C132" t="s">
         <v>1046</v>
@@ -13177,7 +13177,7 @@
         <v>28535</v>
       </c>
       <c r="B133" t="n">
-        <v>131601</v>
+        <v>162367</v>
       </c>
       <c r="C133" t="s">
         <v>1054</v>
@@ -13252,7 +13252,7 @@
         <v>28535</v>
       </c>
       <c r="B134" t="n">
-        <v>131602</v>
+        <v>162368</v>
       </c>
       <c r="C134" t="s">
         <v>1061</v>
@@ -13309,7 +13309,7 @@
         <v>28535</v>
       </c>
       <c r="B135" t="n">
-        <v>131603</v>
+        <v>162369</v>
       </c>
       <c r="C135" t="s">
         <v>1068</v>
@@ -13380,7 +13380,7 @@
         <v>28535</v>
       </c>
       <c r="B136" t="n">
-        <v>131604</v>
+        <v>162370</v>
       </c>
       <c r="C136" t="s">
         <v>1076</v>
@@ -13437,7 +13437,7 @@
         <v>28535</v>
       </c>
       <c r="B137" t="n">
-        <v>131605</v>
+        <v>162371</v>
       </c>
       <c r="C137" t="s">
         <v>1082</v>
@@ -13502,7 +13502,7 @@
         <v>28535</v>
       </c>
       <c r="B138" t="n">
-        <v>131606</v>
+        <v>162372</v>
       </c>
       <c r="C138" t="s">
         <v>1089</v>
@@ -13624,7 +13624,7 @@
         <v>28535</v>
       </c>
       <c r="B140" t="n">
-        <v>131607</v>
+        <v>162373</v>
       </c>
       <c r="C140" t="s">
         <v>1101</v>
